--- a/data/benchmarks/sample_comparison.xlsx
+++ b/data/benchmarks/sample_comparison.xlsx
@@ -1,47 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\Desktop\Università Magistrale SICUREZZA DEI SISTEMI SOFTWARE\Secondo Anno\Semantic Analytics For Cybersecurity\Progetto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F967C526-E014-4EB1-9005-725E024844B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5976" yWindow="1968" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="26">
-  <si>
-    <t>Tecniche di Prompting</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">Prompting Method</t>
   </si>
   <si>
     <t>Zero-Shot</t>
   </si>
   <si>
-    <t>Model Family</t>
+    <t xml:space="preserve">Model Family</t>
   </si>
   <si>
     <t>Gemini-3.5</t>
@@ -71,62 +54,62 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Few Shot</t>
-  </si>
-  <si>
-    <t>Chain of Thought</t>
-  </si>
-  <si>
     <t>0.7284</t>
   </si>
   <si>
+    <t>0.8395</t>
+  </si>
+  <si>
+    <t>0.8086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Few Shot</t>
+  </si>
+  <si>
     <t>0.7222</t>
   </si>
   <si>
     <t>0.7531</t>
   </si>
   <si>
+    <t>0.8210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain of Thought</t>
+  </si>
+  <si>
+    <t>10I189</t>
+  </si>
+  <si>
+    <t>0.5617</t>
+  </si>
+  <si>
     <t>0.6728</t>
   </si>
   <si>
-    <t>10I189</t>
-  </si>
-  <si>
     <t>0.7346</t>
   </si>
   <si>
-    <t>0.8395</t>
-  </si>
-  <si>
     <t>0.8704</t>
   </si>
   <si>
-    <t>0.8086</t>
-  </si>
-  <si>
-    <t>0.8210</t>
-  </si>
-  <si>
     <t>0.8333</t>
-  </si>
-  <si>
-    <t>0.5617</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -142,47 +125,41 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEE80"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4F5C1"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -197,30 +174,30 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -229,12 +206,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFF4F5C1"/>
-      <color rgb="FFEEEE80"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -246,8 +217,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,35 +712,33 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="E20" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="21"/>
+    <col customWidth="1" min="3" max="3" width="17"/>
+    <col customWidth="1" min="4" max="4" width="18.33203125"/>
+    <col customWidth="1" min="5" max="5" width="21.44140625"/>
+    <col customWidth="1" min="6" max="6" width="18.33203125"/>
+    <col customWidth="1" min="8" max="8" width="21.44140625"/>
+    <col customWidth="1" min="9" max="9" width="17.6640625"/>
+    <col customWidth="1" min="11" max="11" width="20.21875"/>
+    <col customWidth="1" min="12" max="12" width="17.6640625"/>
+    <col customWidth="1" min="13" max="13" width="8.88671875"/>
+    <col customWidth="1" min="14" max="14" width="20.77734375"/>
+    <col customWidth="1" min="15" max="15" width="17.77734375"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="28.199999999999999" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="29.399999999999999" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -550,7 +802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="28.199999999999999" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -582,7 +834,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="28.800000000000001" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -614,7 +866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="28.800000000000001" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -646,71 +898,71 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="29.399999999999999" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" ht="27.600000000000001" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="27.600000000000001" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -742,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="28.199999999999999" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
@@ -774,7 +1026,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="30" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -806,7 +1058,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="30.600000000000001" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
@@ -838,73 +1090,73 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="29.399999999999999" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="13.800000000000001" customHeight="1"/>
+    <row r="21" ht="13.199999999999999" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" ht="31.800000000000001" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
@@ -936,7 +1188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="29.399999999999999" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
@@ -968,7 +1220,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="30.600000000000001" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
@@ -979,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1000,7 +1252,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="28.199999999999999" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
@@ -1032,40 +1284,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="28.199999999999999" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>